--- a/biology/Zoologie/Crabe_royal/Crabe_royal.xlsx
+++ b/biology/Zoologie/Crabe_royal/Crabe_royal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crabe royal est un nom vernaculaire ambigu désignant en français certains crabes répartis dans plusieurs genres de la famille des Lithodidae ou plus rarement dans la famille des Mithracidae.
 </t>
@@ -511,22 +523,24 @@
           <t>Liste des « crabes royaux »</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Crabe royal - Lithodes ferox[1]
-Crabe royal bleu - Paralithodes platypus[1]
-Crabe royal brun - Paralithodes brevipes[1]
-Crabe royal de l'Antarctique - Paralomis spinosissima[1]
-Crabe royal doré - Lithodes aequispina[1]
-Crabe royal des Caraïbes - Mithrax spinosissimus[1]
-Crabe royal grêle - Neolithodes asperrimus[1]
-Crabe royal hérisson - Paralomis granulosa[1]
-Crabe royal du Kamtchatka - Paralithodes camtschaticus[1]
-Crabe royal de Patagonie - Lithodes santolla[1]
-Crabe royal de roche - Lithodes maja[1]
-Crabe royal rouge - Paralomis aculeata[1]
-Crabe royal sphérique - Paralomis formosa[1]
-Crabe royal subantarctique - Lithodes murrayi[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Crabe royal - Lithodes ferox
+Crabe royal bleu - Paralithodes platypus
+Crabe royal brun - Paralithodes brevipes
+Crabe royal de l'Antarctique - Paralomis spinosissima
+Crabe royal doré - Lithodes aequispina
+Crabe royal des Caraïbes - Mithrax spinosissimus
+Crabe royal grêle - Neolithodes asperrimus
+Crabe royal hérisson - Paralomis granulosa
+Crabe royal du Kamtchatka - Paralithodes camtschaticus
+Crabe royal de Patagonie - Lithodes santolla
+Crabe royal de roche - Lithodes maja
+Crabe royal rouge - Paralomis aculeata
+Crabe royal sphérique - Paralomis formosa
+Crabe royal subantarctique - Lithodes murrayi
 etc.</t>
         </is>
       </c>
